--- a/기획/퀘스트 테이블.xlsx
+++ b/기획/퀘스트 테이블.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\unityenginebasic_9th\기획\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46DA9486-39AF-4B1A-9C99-1618738AFC88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DFA0A72-36B5-4648-AF41-62A66C0DCC36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{1BD74421-3F7A-4699-8FE3-53B24FDD7BAA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1BD74421-3F7A-4699-8FE3-53B24FDD7BAA}"/>
   </bookViews>
   <sheets>
     <sheet name="메인" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="200">
   <si>
     <t>한글</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -78,10 +78,6 @@
   </si>
   <si>
     <t>null</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>_</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -674,9 +670,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>_</t>
-  </si>
-  <si>
     <t>NN000001</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -715,6 +708,148 @@
   <si>
     <t>C0000002</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>수색</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>QMT00003</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>S0000003</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C0000003</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C0000004</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>소문</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>대화</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>QMT00004</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NM000031</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NN000005</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>S0000004</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>S0000005</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>S0000006</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>접수</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>QMT00005</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NN000006</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>S0000007</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>시험</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>QMT00006</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NM000032</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NN000022</t>
+  </si>
+  <si>
+    <t>NN000022</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IO000032</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>S0000008</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>만남</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>배달</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>QMT00007</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NN000041</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IO000033</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>S0000009</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>입단</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>QMT00008</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IO000045</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>S0000010</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -797,7 +932,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -1134,6 +1269,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1146,7 +1290,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1354,12 +1498,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
@@ -1370,6 +1508,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1690,8 +1837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A2EA7B6-043F-40E2-A8E4-7A92F6BCB173}">
   <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1708,7 +1855,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
@@ -1754,10 +1901,10 @@
         <v>10</v>
       </c>
       <c r="E3" s="32" t="s">
-        <v>11</v>
+        <v>199</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>11</v>
+        <v>199</v>
       </c>
       <c r="G3" s="34" t="s">
         <v>0</v>
@@ -1765,80 +1912,80 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="C4" s="35" t="s">
         <v>13</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>14</v>
       </c>
       <c r="D4" s="20" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>11</v>
+        <v>199</v>
       </c>
       <c r="F4" s="36" t="s">
-        <v>11</v>
+        <v>199</v>
       </c>
       <c r="G4" s="37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>17</v>
-      </c>
       <c r="C5" s="39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="24" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>11</v>
+        <v>199</v>
       </c>
       <c r="F5" s="28" t="s">
-        <v>11</v>
+        <v>199</v>
       </c>
       <c r="G5" s="29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>19</v>
-      </c>
       <c r="C6" s="30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D6" s="31" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>11</v>
+        <v>199</v>
       </c>
       <c r="F6" s="33" t="s">
-        <v>11</v>
+        <v>199</v>
       </c>
       <c r="G6" s="34"/>
     </row>
     <row r="7" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="C7" s="30" t="s">
         <v>22</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>23</v>
       </c>
       <c r="D7" s="31">
         <v>0</v>
@@ -1850,41 +1997,41 @@
         <v>8</v>
       </c>
       <c r="G7" s="34" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="C8" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="31">
+        <v>0</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>199</v>
+      </c>
+      <c r="G8" s="34" t="s">
         <v>25</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="31">
-        <v>0</v>
-      </c>
-      <c r="E8" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="34" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" s="20">
         <v>0</v>
@@ -1896,18 +2043,18 @@
         <v>99999999</v>
       </c>
       <c r="G9" s="37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="40" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C10" s="41" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" s="22">
         <v>0</v>
@@ -1919,18 +2066,18 @@
         <v>99</v>
       </c>
       <c r="G10" s="42" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="40" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C11" s="41" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11" s="22">
         <v>0</v>
@@ -1945,105 +2092,105 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="40" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C12" s="41" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D12" s="22" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>11</v>
+        <v>199</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>11</v>
+        <v>199</v>
       </c>
       <c r="G12" s="42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="40" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C13" s="41" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D13" s="22" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>11</v>
+        <v>199</v>
       </c>
       <c r="F13" s="27" t="s">
-        <v>11</v>
+        <v>199</v>
       </c>
       <c r="G13" s="42" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="40" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C14" s="41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" s="22" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="43" t="s">
+      <c r="G14" s="42" t="s">
         <v>34</v>
-      </c>
-      <c r="G14" s="42" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="40" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D15" s="22" t="s">
         <v>10</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>11</v>
+        <v>199</v>
       </c>
       <c r="F15" s="27" t="s">
-        <v>11</v>
+        <v>199</v>
       </c>
       <c r="G15" s="42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="40" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D16" s="22">
         <v>0</v>
@@ -2055,41 +2202,41 @@
         <v>9999</v>
       </c>
       <c r="G16" s="42" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="40" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C17" s="41" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D17" s="22" t="s">
         <v>10</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>11</v>
+        <v>199</v>
       </c>
       <c r="F17" s="27" t="s">
-        <v>11</v>
+        <v>199</v>
       </c>
       <c r="G17" s="42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="40" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C18" s="41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D18" s="22">
         <v>0</v>
@@ -2101,61 +2248,61 @@
         <v>9999</v>
       </c>
       <c r="G18" s="42" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C19" s="41" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D19" s="22" t="s">
         <v>10</v>
       </c>
       <c r="E19" s="26" t="s">
-        <v>11</v>
+        <v>199</v>
       </c>
       <c r="F19" s="27" t="s">
-        <v>11</v>
+        <v>199</v>
       </c>
       <c r="G19" s="42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="38" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C20" s="39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D20" s="24">
         <v>0</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>11</v>
+        <v>199</v>
       </c>
       <c r="F20" s="28" t="s">
-        <v>11</v>
+        <v>199</v>
       </c>
       <c r="G20" s="29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="13" t="s">
         <v>40</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>41</v>
       </c>
       <c r="C21" s="19" t="s">
         <v>9</v>
@@ -2164,10 +2311,10 @@
         <v>10</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>11</v>
+        <v>199</v>
       </c>
       <c r="F21" s="36" t="s">
-        <v>11</v>
+        <v>199</v>
       </c>
       <c r="G21" s="37" t="s">
         <v>0</v>
@@ -2175,36 +2322,36 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="13" t="s">
-        <v>43</v>
-      </c>
       <c r="C22" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D22" s="20" t="s">
         <v>10</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>11</v>
+        <v>199</v>
       </c>
       <c r="F22" s="36" t="s">
-        <v>11</v>
+        <v>199</v>
       </c>
       <c r="G22" s="37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="C23" s="18" t="s">
         <v>45</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>46</v>
       </c>
       <c r="D23" s="24">
         <v>0</v>
@@ -2216,41 +2363,41 @@
         <v>999</v>
       </c>
       <c r="G23" s="29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="13" t="s">
-        <v>48</v>
-      </c>
       <c r="C24" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D24" s="20" t="s">
         <v>10</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>11</v>
+        <v>199</v>
       </c>
       <c r="F24" s="36" t="s">
-        <v>11</v>
+        <v>199</v>
       </c>
       <c r="G24" s="37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="12" t="s">
-        <v>50</v>
-      </c>
       <c r="C25" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D25" s="24">
         <v>0</v>
@@ -2262,64 +2409,64 @@
         <v>999</v>
       </c>
       <c r="G25" s="29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="9" t="s">
-        <v>52</v>
-      </c>
       <c r="C26" s="44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D26" s="31" t="s">
         <v>10</v>
       </c>
       <c r="E26" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="F26" s="45" t="s">
+      <c r="G26" s="46" t="s">
         <v>34</v>
-      </c>
-      <c r="G26" s="46" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B27" s="14" t="s">
-        <v>54</v>
-      </c>
       <c r="C27" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D27" s="22" t="s">
         <v>10</v>
       </c>
       <c r="E27" s="23" t="s">
-        <v>11</v>
+        <v>199</v>
       </c>
       <c r="F27" s="27" t="s">
-        <v>11</v>
+        <v>199</v>
       </c>
       <c r="G27" s="47" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B28" s="12" t="s">
-        <v>56</v>
-      </c>
       <c r="C28" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D28" s="24">
         <v>0</v>
@@ -2331,64 +2478,64 @@
         <v>1</v>
       </c>
       <c r="G28" s="49" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D29" s="50" t="s">
         <v>10</v>
       </c>
       <c r="E29" s="50" t="s">
-        <v>11</v>
+        <v>199</v>
       </c>
       <c r="F29" s="36" t="s">
-        <v>11</v>
+        <v>199</v>
       </c>
       <c r="G29" s="51" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D30" s="22" t="s">
         <v>10</v>
       </c>
       <c r="E30" s="23" t="s">
-        <v>11</v>
+        <v>199</v>
       </c>
       <c r="F30" s="27" t="s">
-        <v>11</v>
+        <v>199</v>
       </c>
       <c r="G30" s="47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="12" t="s">
-        <v>60</v>
-      </c>
       <c r="C31" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D31" s="24">
         <v>0</v>
@@ -2400,41 +2547,41 @@
         <v>999</v>
       </c>
       <c r="G31" s="49" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="9" t="s">
-        <v>62</v>
-      </c>
       <c r="C32" s="44" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D32" s="31" t="s">
         <v>10</v>
       </c>
       <c r="E32" s="32" t="s">
-        <v>11</v>
+        <v>199</v>
       </c>
       <c r="F32" s="33" t="s">
-        <v>11</v>
+        <v>199</v>
       </c>
       <c r="G32" s="46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B33" s="12" t="s">
-        <v>64</v>
-      </c>
       <c r="C33" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D33" s="24">
         <v>0</v>
@@ -2446,18 +2593,18 @@
         <v>1</v>
       </c>
       <c r="G33" s="49" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="12" t="s">
-        <v>66</v>
-      </c>
       <c r="C34" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D34" s="24">
         <v>0</v>
@@ -2474,13 +2621,13 @@
     </row>
     <row r="35" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="9" t="s">
-        <v>68</v>
-      </c>
       <c r="C35" s="44" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D35" s="31">
         <v>0</v>
@@ -2497,13 +2644,13 @@
     </row>
     <row r="36" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B36" s="9" t="s">
-        <v>70</v>
-      </c>
       <c r="C36" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D36" s="31">
         <v>0</v>
@@ -2518,13 +2665,13 @@
     </row>
     <row r="37" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B37" s="9" t="s">
-        <v>72</v>
-      </c>
       <c r="C37" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D37" s="31">
         <v>0</v>
@@ -2536,41 +2683,41 @@
         <v>2</v>
       </c>
       <c r="G37" s="34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="B38" s="15" t="s">
-        <v>75</v>
-      </c>
       <c r="C38" s="53" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D38" s="54" t="s">
         <v>10</v>
       </c>
       <c r="E38" s="55" t="s">
-        <v>11</v>
+        <v>199</v>
       </c>
       <c r="F38" s="56" t="s">
-        <v>11</v>
+        <v>199</v>
       </c>
       <c r="G38" s="57" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B39" s="12" t="s">
-        <v>77</v>
-      </c>
       <c r="C39" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D39" s="24">
         <v>0</v>
@@ -2585,36 +2732,36 @@
     </row>
     <row r="40" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="15" t="s">
-        <v>79</v>
-      </c>
       <c r="C40" s="53" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D40" s="54" t="s">
         <v>10</v>
       </c>
       <c r="E40" s="55" t="s">
-        <v>11</v>
+        <v>199</v>
       </c>
       <c r="F40" s="56" t="s">
-        <v>11</v>
+        <v>199</v>
       </c>
       <c r="G40" s="57" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="12" t="s">
-        <v>81</v>
-      </c>
       <c r="C41" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D41" s="24">
         <v>0</v>
@@ -2629,36 +2776,36 @@
     </row>
     <row r="42" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="B42" s="15" t="s">
-        <v>83</v>
-      </c>
       <c r="C42" s="53" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D42" s="54" t="s">
         <v>10</v>
       </c>
       <c r="E42" s="55" t="s">
-        <v>11</v>
+        <v>199</v>
       </c>
       <c r="F42" s="56" t="s">
-        <v>11</v>
+        <v>199</v>
       </c>
       <c r="G42" s="57" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="B43" s="12" t="s">
-        <v>85</v>
-      </c>
       <c r="C43" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D43" s="24">
         <v>0</v>
@@ -2673,36 +2820,36 @@
     </row>
     <row r="44" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="B44" s="15" t="s">
-        <v>87</v>
-      </c>
       <c r="C44" s="53" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D44" s="54" t="s">
         <v>10</v>
       </c>
       <c r="E44" s="55" t="s">
-        <v>11</v>
+        <v>199</v>
       </c>
       <c r="F44" s="56" t="s">
-        <v>11</v>
+        <v>199</v>
       </c>
       <c r="G44" s="57" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="B45" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="B45" s="12" t="s">
-        <v>89</v>
-      </c>
       <c r="C45" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D45" s="24">
         <v>0</v>
@@ -2717,36 +2864,36 @@
     </row>
     <row r="46" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="B46" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="B46" s="15" t="s">
-        <v>91</v>
-      </c>
       <c r="C46" s="53" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D46" s="54" t="s">
         <v>10</v>
       </c>
       <c r="E46" s="55" t="s">
-        <v>11</v>
+        <v>199</v>
       </c>
       <c r="F46" s="56" t="s">
-        <v>11</v>
+        <v>199</v>
       </c>
       <c r="G46" s="57" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="B47" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="B47" s="12" t="s">
-        <v>93</v>
-      </c>
       <c r="C47" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D47" s="24">
         <v>0</v>
@@ -2761,36 +2908,36 @@
     </row>
     <row r="48" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B48" s="15" t="s">
-        <v>95</v>
-      </c>
       <c r="C48" s="53" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D48" s="54" t="s">
         <v>10</v>
       </c>
       <c r="E48" s="55" t="s">
-        <v>11</v>
+        <v>199</v>
       </c>
       <c r="F48" s="56" t="s">
-        <v>11</v>
+        <v>199</v>
       </c>
       <c r="G48" s="57" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="B49" s="12" t="s">
-        <v>97</v>
-      </c>
       <c r="C49" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D49" s="24">
         <v>0</v>
@@ -2805,36 +2952,36 @@
     </row>
     <row r="50" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="B50" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="B50" s="15" t="s">
-        <v>99</v>
-      </c>
       <c r="C50" s="53" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D50" s="54" t="s">
         <v>10</v>
       </c>
       <c r="E50" s="55" t="s">
-        <v>11</v>
+        <v>199</v>
       </c>
       <c r="F50" s="56" t="s">
-        <v>11</v>
+        <v>199</v>
       </c>
       <c r="G50" s="57" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="B51" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B51" s="12" t="s">
-        <v>101</v>
-      </c>
       <c r="C51" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D51" s="24">
         <v>0</v>
@@ -2849,36 +2996,36 @@
     </row>
     <row r="52" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="B52" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="B52" s="15" t="s">
-        <v>103</v>
-      </c>
       <c r="C52" s="53" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D52" s="54" t="s">
         <v>10</v>
       </c>
       <c r="E52" s="55" t="s">
-        <v>11</v>
+        <v>199</v>
       </c>
       <c r="F52" s="56" t="s">
-        <v>11</v>
+        <v>199</v>
       </c>
       <c r="G52" s="57" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="B53" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="B53" s="60" t="s">
-        <v>105</v>
-      </c>
       <c r="C53" s="61" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D53" s="62">
         <v>0</v>
@@ -2893,140 +3040,140 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D54" s="20" t="s">
         <v>10</v>
       </c>
       <c r="E54" s="21" t="s">
-        <v>11</v>
+        <v>199</v>
       </c>
       <c r="F54" s="21" t="s">
-        <v>11</v>
+        <v>199</v>
       </c>
       <c r="G54" s="66" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D55" s="22" t="s">
         <v>10</v>
       </c>
       <c r="E55" s="23" t="s">
-        <v>11</v>
+        <v>199</v>
       </c>
       <c r="F55" s="23" t="s">
-        <v>11</v>
+        <v>199</v>
       </c>
       <c r="G55" s="67" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D56" s="24" t="s">
         <v>10</v>
       </c>
       <c r="E56" s="25" t="s">
-        <v>11</v>
+        <v>199</v>
       </c>
       <c r="F56" s="25" t="s">
-        <v>11</v>
+        <v>199</v>
       </c>
       <c r="G56" s="68" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D57" s="20" t="s">
         <v>10</v>
       </c>
       <c r="E57" s="21" t="s">
-        <v>11</v>
+        <v>199</v>
       </c>
       <c r="F57" s="21" t="s">
-        <v>11</v>
+        <v>199</v>
       </c>
       <c r="G57" s="66" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D58" s="22" t="s">
         <v>10</v>
       </c>
       <c r="E58" s="23" t="s">
-        <v>11</v>
+        <v>199</v>
       </c>
       <c r="F58" s="23" t="s">
-        <v>11</v>
+        <v>199</v>
       </c>
       <c r="G58" s="67" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C59" s="18" t="s">
         <v>111</v>
-      </c>
-      <c r="B59" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="C59" s="18" t="s">
-        <v>112</v>
       </c>
       <c r="D59" s="24" t="s">
         <v>10</v>
       </c>
       <c r="E59" s="25" t="s">
-        <v>11</v>
+        <v>199</v>
       </c>
       <c r="F59" s="25" t="s">
-        <v>11</v>
+        <v>199</v>
       </c>
       <c r="G59" s="68" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -3038,930 +3185,1969 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D17B490-24E2-416B-9B2A-1D7A9BFAB76B}">
-  <dimension ref="A1:BE5"/>
+  <dimension ref="A1:BE11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="Z16" sqref="Z16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.625" style="70" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="7.25" style="69" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.875" style="69" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.25" style="69" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5" style="69" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.625" style="69" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.25" style="69" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.625" style="69" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.5" style="69" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.875" style="69" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.75" style="69" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.875" style="69" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.375" style="69" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.375" style="69" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.875" style="69" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.25" style="69" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="29.25" style="69" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.25" style="69" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.5" style="69" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21" style="69" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.375" style="69" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22.75" style="69" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.75" style="69" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.5" style="69" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="27.25" style="69" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="19.375" style="69" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="26.25" style="69" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="23.75" style="69" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="22.625" style="69" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="19" style="69" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11.875" style="69" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.875" style="69" bestFit="1" customWidth="1"/>
-    <col min="34" max="35" width="26.25" style="69" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="16.5" style="69" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="19" style="69" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="16.5" style="69" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="19" style="69" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="16.5" style="69" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="19" style="70" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="16.5" style="69" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="19" style="69" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="16.5" style="69" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="19" style="69" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="16.5" style="69" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="19" style="69" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="16.5" style="69" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="19" style="69" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="16.5" style="69" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="19" style="69" bestFit="1" customWidth="1"/>
-    <col min="52" max="54" width="14.875" style="69" bestFit="1" customWidth="1"/>
-    <col min="55" max="57" width="15.25" style="69" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="7.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="29.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21" style="6" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="27.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="19.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="26.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="22.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="19" style="6" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="26.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="16.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="19" style="6" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="16.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="19" style="6" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="16.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="19" style="6" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="16.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="19" style="6" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="16.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="19" style="6" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="16.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="19" style="6" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="16.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="19" style="6" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="16.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="19" style="6" bestFit="1" customWidth="1"/>
+    <col min="52" max="54" width="14.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="55" max="57" width="15.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="58" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" s="74" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="71" t="s">
+    <row r="1" spans="1:57" s="72" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="71" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="72" t="s">
+      <c r="B1" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="70" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="70" t="s">
+        <v>125</v>
+      </c>
+      <c r="H1" s="70" t="s">
+        <v>126</v>
+      </c>
+      <c r="I1" s="70" t="s">
+        <v>134</v>
+      </c>
+      <c r="J1" s="70" t="s">
+        <v>127</v>
+      </c>
+      <c r="K1" s="70" t="s">
+        <v>128</v>
+      </c>
+      <c r="L1" s="70" t="s">
+        <v>129</v>
+      </c>
+      <c r="M1" s="70" t="s">
+        <v>130</v>
+      </c>
+      <c r="N1" s="70" t="s">
+        <v>145</v>
+      </c>
+      <c r="O1" s="70" t="s">
+        <v>131</v>
+      </c>
+      <c r="P1" s="70" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q1" s="70" t="s">
+        <v>132</v>
+      </c>
+      <c r="R1" s="70" t="s">
+        <v>133</v>
+      </c>
+      <c r="S1" s="70" t="s">
+        <v>40</v>
+      </c>
+      <c r="T1" s="70" t="s">
+        <v>42</v>
+      </c>
+      <c r="U1" s="70" t="s">
+        <v>44</v>
+      </c>
+      <c r="V1" s="70" t="s">
+        <v>47</v>
+      </c>
+      <c r="W1" s="70" t="s">
+        <v>49</v>
+      </c>
+      <c r="X1" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y1" s="70" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z1" s="70" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA1" s="70" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB1" s="70" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC1" s="70" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD1" s="70" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE1" s="70" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF1" s="70" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG1" s="70" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH1" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI1" s="70" t="s">
+        <v>71</v>
+      </c>
+      <c r="AJ1" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK1" s="70" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL1" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="AM1" s="70" t="s">
+        <v>80</v>
+      </c>
+      <c r="AN1" s="70" t="s">
+        <v>82</v>
+      </c>
+      <c r="AO1" s="70" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP1" s="70" t="s">
+        <v>86</v>
+      </c>
+      <c r="AQ1" s="70" t="s">
+        <v>88</v>
+      </c>
+      <c r="AR1" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="AS1" s="70" t="s">
+        <v>92</v>
+      </c>
+      <c r="AT1" s="70" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU1" s="70" t="s">
+        <v>96</v>
+      </c>
+      <c r="AV1" s="70" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW1" s="70" t="s">
+        <v>100</v>
+      </c>
+      <c r="AX1" s="70" t="s">
+        <v>102</v>
+      </c>
+      <c r="AY1" s="70" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ1" s="70" t="s">
+        <v>139</v>
+      </c>
+      <c r="BA1" s="70" t="s">
+        <v>140</v>
+      </c>
+      <c r="BB1" s="70" t="s">
+        <v>141</v>
+      </c>
+      <c r="BC1" s="70" t="s">
+        <v>142</v>
+      </c>
+      <c r="BD1" s="70" t="s">
+        <v>143</v>
+      </c>
+      <c r="BE1" s="70" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:57" s="75" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="73" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="73" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="72" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="72" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="72" t="s">
-        <v>126</v>
-      </c>
-      <c r="H1" s="72" t="s">
-        <v>127</v>
-      </c>
-      <c r="I1" s="72" t="s">
-        <v>135</v>
-      </c>
-      <c r="J1" s="72" t="s">
-        <v>128</v>
-      </c>
-      <c r="K1" s="72" t="s">
-        <v>129</v>
-      </c>
-      <c r="L1" s="72" t="s">
-        <v>130</v>
-      </c>
-      <c r="M1" s="72" t="s">
-        <v>131</v>
-      </c>
-      <c r="N1" s="72" t="s">
-        <v>146</v>
-      </c>
-      <c r="O1" s="72" t="s">
-        <v>132</v>
-      </c>
-      <c r="P1" s="72" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q1" s="72" t="s">
-        <v>133</v>
-      </c>
-      <c r="R1" s="72" t="s">
-        <v>134</v>
-      </c>
-      <c r="S1" s="72" t="s">
+      <c r="E2" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="74" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="73" t="s">
+        <v>113</v>
+      </c>
+      <c r="H2" s="73" t="s">
+        <v>114</v>
+      </c>
+      <c r="I2" s="73" t="s">
+        <v>115</v>
+      </c>
+      <c r="J2" s="73" t="s">
+        <v>116</v>
+      </c>
+      <c r="K2" s="73" t="s">
+        <v>117</v>
+      </c>
+      <c r="L2" s="73" t="s">
+        <v>118</v>
+      </c>
+      <c r="M2" s="73" t="s">
+        <v>119</v>
+      </c>
+      <c r="N2" s="73" t="s">
+        <v>120</v>
+      </c>
+      <c r="O2" s="73" t="s">
+        <v>121</v>
+      </c>
+      <c r="P2" s="73" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q2" s="73" t="s">
+        <v>123</v>
+      </c>
+      <c r="R2" s="73" t="s">
+        <v>124</v>
+      </c>
+      <c r="S2" s="73" t="s">
+        <v>39</v>
+      </c>
+      <c r="T2" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="T1" s="72" t="s">
+      <c r="U2" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="U1" s="72" t="s">
-        <v>45</v>
-      </c>
-      <c r="V1" s="72" t="s">
+      <c r="V2" s="74" t="s">
+        <v>46</v>
+      </c>
+      <c r="W2" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="W1" s="72" t="s">
+      <c r="X2" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="X1" s="72" t="s">
+      <c r="Y2" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="Y1" s="72" t="s">
+      <c r="Z2" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="Z1" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA1" s="72" t="s">
+      <c r="AA2" s="74" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB2" s="74" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC2" s="74" t="s">
         <v>58</v>
       </c>
-      <c r="AB1" s="72" t="s">
-        <v>113</v>
-      </c>
-      <c r="AC1" s="72" t="s">
+      <c r="AD2" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="AD1" s="72" t="s">
+      <c r="AE2" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="AE1" s="72" t="s">
+      <c r="AF2" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="AF1" s="72" t="s">
+      <c r="AG2" s="73" t="s">
         <v>66</v>
       </c>
-      <c r="AG1" s="72" t="s">
+      <c r="AH2" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="AH1" s="72" t="s">
+      <c r="AI2" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="AI1" s="72" t="s">
-        <v>72</v>
-      </c>
-      <c r="AJ1" s="72" t="s">
+      <c r="AJ2" s="73" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK2" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="AK1" s="72" t="s">
+      <c r="AL2" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="AL1" s="72" t="s">
+      <c r="AM2" s="73" t="s">
         <v>79</v>
       </c>
-      <c r="AM1" s="72" t="s">
+      <c r="AN2" s="73" t="s">
         <v>81</v>
       </c>
-      <c r="AN1" s="72" t="s">
+      <c r="AO2" s="73" t="s">
         <v>83</v>
       </c>
-      <c r="AO1" s="72" t="s">
+      <c r="AP2" s="73" t="s">
         <v>85</v>
       </c>
-      <c r="AP1" s="72" t="s">
+      <c r="AQ2" s="73" t="s">
         <v>87</v>
       </c>
-      <c r="AQ1" s="72" t="s">
+      <c r="AR2" s="73" t="s">
         <v>89</v>
       </c>
-      <c r="AR1" s="72" t="s">
+      <c r="AS2" s="73" t="s">
         <v>91</v>
       </c>
-      <c r="AS1" s="72" t="s">
+      <c r="AT2" s="73" t="s">
         <v>93</v>
       </c>
-      <c r="AT1" s="72" t="s">
+      <c r="AU2" s="73" t="s">
         <v>95</v>
       </c>
-      <c r="AU1" s="72" t="s">
+      <c r="AV2" s="73" t="s">
         <v>97</v>
       </c>
-      <c r="AV1" s="72" t="s">
+      <c r="AW2" s="73" t="s">
         <v>99</v>
       </c>
-      <c r="AW1" s="72" t="s">
+      <c r="AX2" s="73" t="s">
         <v>101</v>
       </c>
-      <c r="AX1" s="72" t="s">
+      <c r="AY2" s="73" t="s">
         <v>103</v>
       </c>
-      <c r="AY1" s="72" t="s">
-        <v>105</v>
-      </c>
-      <c r="AZ1" s="72" t="s">
-        <v>140</v>
-      </c>
-      <c r="BA1" s="72" t="s">
-        <v>141</v>
-      </c>
-      <c r="BB1" s="72" t="s">
-        <v>142</v>
-      </c>
-      <c r="BC1" s="72" t="s">
-        <v>143</v>
-      </c>
-      <c r="BD1" s="72" t="s">
-        <v>144</v>
-      </c>
-      <c r="BE1" s="72" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="2" spans="1:57" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="71" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="71" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="71" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="71" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="72" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="71" t="s">
-        <v>114</v>
-      </c>
-      <c r="H2" s="71" t="s">
-        <v>115</v>
-      </c>
-      <c r="I2" s="71" t="s">
-        <v>116</v>
-      </c>
-      <c r="J2" s="71" t="s">
-        <v>117</v>
-      </c>
-      <c r="K2" s="71" t="s">
-        <v>118</v>
-      </c>
-      <c r="L2" s="71" t="s">
-        <v>119</v>
-      </c>
-      <c r="M2" s="71" t="s">
-        <v>120</v>
-      </c>
-      <c r="N2" s="71" t="s">
-        <v>121</v>
-      </c>
-      <c r="O2" s="71" t="s">
-        <v>122</v>
-      </c>
-      <c r="P2" s="71" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q2" s="71" t="s">
-        <v>124</v>
-      </c>
-      <c r="R2" s="71" t="s">
-        <v>125</v>
-      </c>
-      <c r="S2" s="71" t="s">
-        <v>40</v>
-      </c>
-      <c r="T2" s="71" t="s">
-        <v>42</v>
-      </c>
-      <c r="U2" s="71" t="s">
-        <v>44</v>
-      </c>
-      <c r="V2" s="72" t="s">
-        <v>47</v>
-      </c>
-      <c r="W2" s="72" t="s">
-        <v>49</v>
-      </c>
-      <c r="X2" s="72" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y2" s="72" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z2" s="72" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA2" s="72" t="s">
-        <v>106</v>
-      </c>
-      <c r="AB2" s="72" t="s">
-        <v>107</v>
-      </c>
-      <c r="AC2" s="72" t="s">
-        <v>59</v>
-      </c>
-      <c r="AD2" s="72" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE2" s="72" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF2" s="71" t="s">
-        <v>65</v>
-      </c>
-      <c r="AG2" s="71" t="s">
-        <v>67</v>
-      </c>
-      <c r="AH2" s="72" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI2" s="72" t="s">
-        <v>71</v>
-      </c>
-      <c r="AJ2" s="71" t="s">
-        <v>74</v>
-      </c>
-      <c r="AK2" s="71" t="s">
-        <v>76</v>
-      </c>
-      <c r="AL2" s="71" t="s">
-        <v>78</v>
-      </c>
-      <c r="AM2" s="71" t="s">
-        <v>80</v>
-      </c>
-      <c r="AN2" s="71" t="s">
-        <v>82</v>
-      </c>
-      <c r="AO2" s="71" t="s">
-        <v>84</v>
-      </c>
-      <c r="AP2" s="71" t="s">
-        <v>86</v>
-      </c>
-      <c r="AQ2" s="71" t="s">
-        <v>88</v>
-      </c>
-      <c r="AR2" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="AS2" s="71" t="s">
-        <v>92</v>
-      </c>
-      <c r="AT2" s="71" t="s">
-        <v>94</v>
-      </c>
-      <c r="AU2" s="71" t="s">
-        <v>96</v>
-      </c>
-      <c r="AV2" s="71" t="s">
-        <v>98</v>
-      </c>
-      <c r="AW2" s="71" t="s">
+      <c r="AZ2" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="BA2" s="74" t="s">
+        <v>138</v>
+      </c>
+      <c r="BB2" s="74" t="s">
+        <v>137</v>
+      </c>
+      <c r="BC2" s="74" t="s">
+        <v>108</v>
+      </c>
+      <c r="BD2" s="74" t="s">
+        <v>109</v>
+      </c>
+      <c r="BE2" s="74" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:57" s="71" customFormat="1" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="71" t="s">
+        <v>198</v>
+      </c>
+      <c r="B3" s="71" t="s">
+        <v>198</v>
+      </c>
+      <c r="C3" s="71" t="s">
+        <v>198</v>
+      </c>
+      <c r="D3" s="71" t="s">
+        <v>198</v>
+      </c>
+      <c r="E3" s="71">
+        <v>0</v>
+      </c>
+      <c r="F3" s="71">
+        <v>0</v>
+      </c>
+      <c r="G3" s="71">
+        <v>0</v>
+      </c>
+      <c r="H3" s="71">
+        <v>0</v>
+      </c>
+      <c r="I3" s="71">
+        <v>0</v>
+      </c>
+      <c r="J3" s="71" t="s">
+        <v>198</v>
+      </c>
+      <c r="K3" s="71" t="s">
+        <v>198</v>
+      </c>
+      <c r="L3" s="71" t="s">
+        <v>198</v>
+      </c>
+      <c r="M3" s="71" t="s">
+        <v>198</v>
+      </c>
+      <c r="N3" s="71">
+        <v>0</v>
+      </c>
+      <c r="O3" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="P3" s="71">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="R3" s="71">
+        <v>0</v>
+      </c>
+      <c r="S3" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="T3" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="U3" s="71">
+        <v>0</v>
+      </c>
+      <c r="V3" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="W3" s="71">
+        <v>0</v>
+      </c>
+      <c r="X3" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y3" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z3" s="71">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="AB3" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="AC3" s="71">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="AE3" s="71">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="71">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="71">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="71">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="71">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="AK3" s="71">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="AM3" s="71">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="AO3" s="71">
+        <v>0</v>
+      </c>
+      <c r="AP3" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="AQ3" s="71">
+        <v>0</v>
+      </c>
+      <c r="AR3" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="AS3" s="71">
+        <v>0</v>
+      </c>
+      <c r="AT3" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="AU3" s="71">
+        <v>0</v>
+      </c>
+      <c r="AV3" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="AW3" s="71">
+        <v>0</v>
+      </c>
+      <c r="AX3" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="AY3" s="71">
+        <v>0</v>
+      </c>
+      <c r="AZ3" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="BA3" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="BB3" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="BC3" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="BD3" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="BE3" s="71" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:57" s="71" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="71" t="s">
+        <v>150</v>
+      </c>
+      <c r="B4" s="71" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" s="71" t="s">
+        <v>152</v>
+      </c>
+      <c r="D4" s="71" t="s">
+        <v>153</v>
+      </c>
+      <c r="E4" s="71">
+        <v>0</v>
+      </c>
+      <c r="F4" s="71">
+        <v>1</v>
+      </c>
+      <c r="G4" s="71">
+        <v>0</v>
+      </c>
+      <c r="H4" s="71">
+        <v>1</v>
+      </c>
+      <c r="I4" s="71">
+        <v>1</v>
+      </c>
+      <c r="J4" s="71" t="s">
+        <v>198</v>
+      </c>
+      <c r="K4" s="71" t="s">
+        <v>154</v>
+      </c>
+      <c r="L4" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="M4" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="N4" s="71">
+        <v>0</v>
+      </c>
+      <c r="O4" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="P4" s="71">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="R4" s="71">
+        <v>0</v>
+      </c>
+      <c r="S4" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="T4" s="71" t="s">
+        <v>155</v>
+      </c>
+      <c r="U4" s="71">
+        <v>2</v>
+      </c>
+      <c r="V4" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="W4" s="71">
+        <v>0</v>
+      </c>
+      <c r="X4" s="71" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y4" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z4" s="71">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="AB4" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="AC4" s="71">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="AE4" s="71">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="71">
+        <v>10</v>
+      </c>
+      <c r="AG4" s="71">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="71">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="71">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="AK4" s="71">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="AM4" s="71">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="AO4" s="71">
+        <v>0</v>
+      </c>
+      <c r="AP4" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="AQ4" s="71">
+        <v>0</v>
+      </c>
+      <c r="AR4" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="AS4" s="71">
+        <v>0</v>
+      </c>
+      <c r="AT4" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="AU4" s="71">
+        <v>0</v>
+      </c>
+      <c r="AV4" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="AW4" s="71">
+        <v>0</v>
+      </c>
+      <c r="AX4" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="AY4" s="71">
+        <v>0</v>
+      </c>
+      <c r="AZ4" s="71" t="s">
+        <v>157</v>
+      </c>
+      <c r="BA4" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="BB4" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="BC4" s="71" t="s">
+        <v>158</v>
+      </c>
+      <c r="BD4" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="BE4" s="71" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:57" s="71" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="71" t="s">
+        <v>159</v>
+      </c>
+      <c r="B5" s="71" t="s">
+        <v>160</v>
+      </c>
+      <c r="C5" s="71" t="s">
+        <v>152</v>
+      </c>
+      <c r="D5" s="71" t="s">
+        <v>161</v>
+      </c>
+      <c r="E5" s="71">
+        <v>0</v>
+      </c>
+      <c r="F5" s="71">
+        <v>2</v>
+      </c>
+      <c r="G5" s="71">
+        <v>0</v>
+      </c>
+      <c r="H5" s="71">
+        <v>0</v>
+      </c>
+      <c r="I5" s="71">
+        <v>0</v>
+      </c>
+      <c r="J5" s="71" t="s">
+        <v>153</v>
+      </c>
+      <c r="K5" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="L5" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="M5" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="N5" s="71">
+        <v>0</v>
+      </c>
+      <c r="O5" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="P5" s="71">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="R5" s="71">
+        <v>0</v>
+      </c>
+      <c r="S5" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="T5" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="U5" s="71">
+        <v>0</v>
+      </c>
+      <c r="V5" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="W5" s="71">
+        <v>0</v>
+      </c>
+      <c r="X5" s="71" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y5" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z5" s="71">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="AB5" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="AC5" s="71">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="AE5" s="71">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="71">
+        <v>10</v>
+      </c>
+      <c r="AG5" s="71">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="71">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="71">
+        <v>1</v>
+      </c>
+      <c r="AJ5" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="AK5" s="71">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="AM5" s="71">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="AO5" s="71">
+        <v>0</v>
+      </c>
+      <c r="AP5" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="AQ5" s="71">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="AS5" s="71">
+        <v>0</v>
+      </c>
+      <c r="AT5" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="AU5" s="71">
+        <v>0</v>
+      </c>
+      <c r="AV5" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="AW5" s="71">
+        <v>0</v>
+      </c>
+      <c r="AX5" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="AY5" s="71">
+        <v>0</v>
+      </c>
+      <c r="AZ5" s="71" t="s">
+        <v>162</v>
+      </c>
+      <c r="BA5" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="BB5" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="BC5" s="71" t="s">
+        <v>163</v>
+      </c>
+      <c r="BD5" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="BE5" s="71" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="6" spans="1:57" s="71" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="71" t="s">
+        <v>164</v>
+      </c>
+      <c r="B6" s="71" t="s">
+        <v>152</v>
+      </c>
+      <c r="C6" s="71" t="s">
+        <v>160</v>
+      </c>
+      <c r="D6" s="71" t="s">
+        <v>165</v>
+      </c>
+      <c r="E6" s="71">
+        <v>0</v>
+      </c>
+      <c r="F6" s="71">
+        <v>2</v>
+      </c>
+      <c r="G6" s="71">
+        <v>0</v>
+      </c>
+      <c r="H6" s="71">
+        <v>0</v>
+      </c>
+      <c r="I6" s="71">
+        <v>0</v>
+      </c>
+      <c r="J6" s="71" t="s">
+        <v>161</v>
+      </c>
+      <c r="K6" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="L6" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="M6" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="N6" s="71">
+        <v>0</v>
+      </c>
+      <c r="O6" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="P6" s="71">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="R6" s="71">
+        <v>0</v>
+      </c>
+      <c r="S6" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="T6" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="U6" s="71">
+        <v>0</v>
+      </c>
+      <c r="V6" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="W6" s="71">
+        <v>0</v>
+      </c>
+      <c r="X6" s="71" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y6" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z6" s="71">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="AB6" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="AC6" s="71">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="AE6" s="71">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="71">
+        <v>10</v>
+      </c>
+      <c r="AG6" s="71">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="71">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="71">
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="AK6" s="71">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="AM6" s="71">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="AO6" s="71">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="AQ6" s="71">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="AS6" s="71">
+        <v>0</v>
+      </c>
+      <c r="AT6" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="AU6" s="71">
+        <v>0</v>
+      </c>
+      <c r="AV6" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="AW6" s="71">
+        <v>0</v>
+      </c>
+      <c r="AX6" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="AY6" s="71">
+        <v>0</v>
+      </c>
+      <c r="AZ6" s="71" t="s">
+        <v>166</v>
+      </c>
+      <c r="BA6" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="BB6" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="BC6" s="71" t="s">
+        <v>167</v>
+      </c>
+      <c r="BD6" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="BE6" s="71" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="7" spans="1:57" s="71" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="71" t="s">
+        <v>169</v>
+      </c>
+      <c r="B7" s="71" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" s="71" t="s">
+        <v>170</v>
+      </c>
+      <c r="D7" s="71" t="s">
+        <v>171</v>
+      </c>
+      <c r="E7" s="71">
+        <v>0</v>
+      </c>
+      <c r="F7" s="71">
+        <v>2</v>
+      </c>
+      <c r="G7" s="71">
+        <v>0</v>
+      </c>
+      <c r="H7" s="71">
+        <v>0</v>
+      </c>
+      <c r="I7" s="71">
+        <v>0</v>
+      </c>
+      <c r="J7" s="71" t="s">
+        <v>165</v>
+      </c>
+      <c r="K7" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="L7" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="M7" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="N7" s="71">
+        <v>0</v>
+      </c>
+      <c r="O7" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="P7" s="71">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="R7" s="71">
+        <v>0</v>
+      </c>
+      <c r="S7" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="T7" s="71" t="s">
+        <v>172</v>
+      </c>
+      <c r="U7" s="71">
+        <v>1</v>
+      </c>
+      <c r="V7" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="W7" s="71">
+        <v>0</v>
+      </c>
+      <c r="X7" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y7" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z7" s="71">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="AB7" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="AC7" s="71">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="71" t="s">
+        <v>173</v>
+      </c>
+      <c r="AE7" s="71">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="71">
+        <v>50</v>
+      </c>
+      <c r="AG7" s="71">
         <v>100</v>
       </c>
-      <c r="AX2" s="71" t="s">
-        <v>102</v>
-      </c>
-      <c r="AY2" s="71" t="s">
-        <v>104</v>
-      </c>
-      <c r="AZ2" s="72" t="s">
-        <v>137</v>
-      </c>
-      <c r="BA2" s="72" t="s">
-        <v>139</v>
-      </c>
-      <c r="BB2" s="72" t="s">
-        <v>138</v>
-      </c>
-      <c r="BC2" s="72" t="s">
-        <v>109</v>
-      </c>
-      <c r="BD2" s="72" t="s">
-        <v>110</v>
-      </c>
-      <c r="BE2" s="72" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:57" s="73" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="73" t="s">
-        <v>155</v>
-      </c>
-      <c r="B3" s="73" t="s">
-        <v>155</v>
-      </c>
-      <c r="C3" s="73" t="s">
-        <v>155</v>
-      </c>
-      <c r="D3" s="73" t="s">
-        <v>155</v>
-      </c>
-      <c r="E3" s="73">
-        <v>0</v>
-      </c>
-      <c r="F3" s="73">
-        <v>0</v>
-      </c>
-      <c r="G3" s="73">
-        <v>0</v>
-      </c>
-      <c r="H3" s="73">
-        <v>0</v>
-      </c>
-      <c r="I3" s="73">
-        <v>0</v>
-      </c>
-      <c r="J3" s="73" t="s">
-        <v>155</v>
-      </c>
-      <c r="K3" s="73" t="s">
-        <v>155</v>
-      </c>
-      <c r="L3" s="73" t="s">
-        <v>155</v>
-      </c>
-      <c r="M3" s="73" t="s">
-        <v>155</v>
-      </c>
-      <c r="N3" s="73">
-        <v>0</v>
-      </c>
-      <c r="O3" s="73" t="s">
-        <v>155</v>
-      </c>
-      <c r="P3" s="73">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="73" t="s">
-        <v>155</v>
-      </c>
-      <c r="R3" s="73">
-        <v>0</v>
-      </c>
-      <c r="S3" s="73" t="s">
-        <v>155</v>
-      </c>
-      <c r="T3" s="73" t="s">
-        <v>155</v>
-      </c>
-      <c r="U3" s="73">
-        <v>0</v>
-      </c>
-      <c r="V3" s="73" t="s">
-        <v>155</v>
-      </c>
-      <c r="W3" s="73">
-        <v>0</v>
-      </c>
-      <c r="X3" s="73" t="s">
-        <v>155</v>
-      </c>
-      <c r="Y3" s="73" t="s">
-        <v>155</v>
-      </c>
-      <c r="Z3" s="73">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="73" t="s">
-        <v>155</v>
-      </c>
-      <c r="AB3" s="73" t="s">
-        <v>155</v>
-      </c>
-      <c r="AC3" s="73">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="73" t="s">
-        <v>155</v>
-      </c>
-      <c r="AE3" s="73">
-        <v>0</v>
-      </c>
-      <c r="AF3" s="73">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="73">
-        <v>0</v>
-      </c>
-      <c r="AH3" s="73">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="73">
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="73" t="s">
-        <v>155</v>
-      </c>
-      <c r="AK3" s="73">
-        <v>0</v>
-      </c>
-      <c r="AL3" s="73" t="s">
-        <v>155</v>
-      </c>
-      <c r="AM3" s="73">
-        <v>0</v>
-      </c>
-      <c r="AN3" s="73" t="s">
-        <v>155</v>
-      </c>
-      <c r="AO3" s="73">
-        <v>0</v>
-      </c>
-      <c r="AP3" s="73" t="s">
-        <v>155</v>
-      </c>
-      <c r="AQ3" s="73">
-        <v>0</v>
-      </c>
-      <c r="AR3" s="73" t="s">
-        <v>155</v>
-      </c>
-      <c r="AS3" s="73">
-        <v>0</v>
-      </c>
-      <c r="AT3" s="73" t="s">
-        <v>155</v>
-      </c>
-      <c r="AU3" s="73">
-        <v>0</v>
-      </c>
-      <c r="AV3" s="73" t="s">
-        <v>155</v>
-      </c>
-      <c r="AW3" s="73">
-        <v>0</v>
-      </c>
-      <c r="AX3" s="73" t="s">
-        <v>155</v>
-      </c>
-      <c r="AY3" s="73">
-        <v>0</v>
-      </c>
-      <c r="AZ3" s="73" t="s">
-        <v>155</v>
-      </c>
-      <c r="BA3" s="73" t="s">
-        <v>155</v>
-      </c>
-      <c r="BB3" s="73" t="s">
-        <v>155</v>
-      </c>
-      <c r="BC3" s="73" t="s">
-        <v>155</v>
-      </c>
-      <c r="BD3" s="73" t="s">
-        <v>155</v>
-      </c>
-      <c r="BE3" s="73" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="4" spans="1:57" s="73" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="73" t="s">
+      <c r="AH7" s="71">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="71">
+        <v>2</v>
+      </c>
+      <c r="AJ7" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="AK7" s="71">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="AM7" s="71">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="AO7" s="71">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="AQ7" s="71">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="AS7" s="71">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="AU7" s="71">
+        <v>0</v>
+      </c>
+      <c r="AV7" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="AW7" s="71">
+        <v>0</v>
+      </c>
+      <c r="AX7" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="AY7" s="71">
+        <v>0</v>
+      </c>
+      <c r="AZ7" s="71" t="s">
+        <v>174</v>
+      </c>
+      <c r="BA7" s="71" t="s">
+        <v>175</v>
+      </c>
+      <c r="BB7" s="71" t="s">
+        <v>176</v>
+      </c>
+      <c r="BC7" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="BD7" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="BE7" s="71" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:57" s="71" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="71" t="s">
+        <v>177</v>
+      </c>
+      <c r="B8" s="71" t="s">
+        <v>170</v>
+      </c>
+      <c r="C8" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="D8" s="71" t="s">
+        <v>178</v>
+      </c>
+      <c r="E8" s="71">
+        <v>0</v>
+      </c>
+      <c r="F8" s="71">
+        <v>2</v>
+      </c>
+      <c r="G8" s="71">
+        <v>0</v>
+      </c>
+      <c r="H8" s="71">
+        <v>0</v>
+      </c>
+      <c r="I8" s="71">
+        <v>0</v>
+      </c>
+      <c r="J8" s="71" t="s">
+        <v>171</v>
+      </c>
+      <c r="K8" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="L8" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="M8" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="N8" s="71">
+        <v>0</v>
+      </c>
+      <c r="O8" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="P8" s="71">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="R8" s="71">
+        <v>0</v>
+      </c>
+      <c r="S8" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="T8" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="U8" s="71">
+        <v>0</v>
+      </c>
+      <c r="V8" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="W8" s="71">
+        <v>0</v>
+      </c>
+      <c r="X8" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y8" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z8" s="71">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="AB8" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="AC8" s="71">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="71" t="s">
+        <v>179</v>
+      </c>
+      <c r="AE8" s="71">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="71">
+        <v>75</v>
+      </c>
+      <c r="AG8" s="71">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="71">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="71">
+        <v>1</v>
+      </c>
+      <c r="AJ8" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="AK8" s="71">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="AM8" s="71">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="AO8" s="71">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="AQ8" s="71">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="AS8" s="71">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="AU8" s="71">
+        <v>0</v>
+      </c>
+      <c r="AV8" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="AW8" s="71">
+        <v>0</v>
+      </c>
+      <c r="AX8" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="AY8" s="71">
+        <v>0</v>
+      </c>
+      <c r="AZ8" s="71" t="s">
+        <v>180</v>
+      </c>
+      <c r="BA8" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="BB8" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="BC8" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="BD8" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="BE8" s="71" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="9" spans="1:57" s="71" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="71" t="s">
+        <v>181</v>
+      </c>
+      <c r="B9" s="71" t="s">
         <v>151</v>
       </c>
-      <c r="B4" s="73" t="s">
-        <v>152</v>
-      </c>
-      <c r="C4" s="73" t="s">
-        <v>153</v>
-      </c>
-      <c r="D4" s="73" t="s">
-        <v>154</v>
-      </c>
-      <c r="E4" s="73">
-        <v>0</v>
-      </c>
-      <c r="F4" s="73">
+      <c r="C9" s="71" t="s">
+        <v>189</v>
+      </c>
+      <c r="D9" s="71" t="s">
+        <v>182</v>
+      </c>
+      <c r="E9" s="71">
+        <v>0</v>
+      </c>
+      <c r="F9" s="71">
+        <v>2</v>
+      </c>
+      <c r="G9" s="71">
+        <v>0</v>
+      </c>
+      <c r="H9" s="71">
+        <v>0</v>
+      </c>
+      <c r="I9" s="71">
+        <v>0</v>
+      </c>
+      <c r="J9" s="71" t="s">
+        <v>178</v>
+      </c>
+      <c r="K9" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="L9" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="M9" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="N9" s="71">
+        <v>0</v>
+      </c>
+      <c r="O9" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="P9" s="71">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="R9" s="71">
+        <v>0</v>
+      </c>
+      <c r="S9" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="T9" s="71" t="s">
+        <v>183</v>
+      </c>
+      <c r="U9" s="71">
         <v>1</v>
       </c>
-      <c r="G4" s="73">
-        <v>0</v>
-      </c>
-      <c r="H4" s="73">
+      <c r="V9" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="W9" s="71">
+        <v>0</v>
+      </c>
+      <c r="X9" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y9" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z9" s="71">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="71" t="s">
+        <v>185</v>
+      </c>
+      <c r="AB9" s="71" t="s">
+        <v>186</v>
+      </c>
+      <c r="AC9" s="71">
         <v>1</v>
       </c>
-      <c r="I4" s="73">
+      <c r="AD9" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="AE9" s="71">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="71">
+        <v>100</v>
+      </c>
+      <c r="AG9" s="71">
+        <v>75</v>
+      </c>
+      <c r="AH9" s="71">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="71">
         <v>1</v>
       </c>
-      <c r="J4" s="73" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="73" t="s">
-        <v>156</v>
-      </c>
-      <c r="L4" s="73" t="s">
-        <v>11</v>
-      </c>
-      <c r="M4" s="73" t="s">
-        <v>155</v>
-      </c>
-      <c r="N4" s="73">
-        <v>0</v>
-      </c>
-      <c r="O4" s="73" t="s">
-        <v>155</v>
-      </c>
-      <c r="P4" s="73">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="73" t="s">
-        <v>155</v>
-      </c>
-      <c r="R4" s="73">
-        <v>0</v>
-      </c>
-      <c r="S4" s="73" t="s">
-        <v>155</v>
-      </c>
-      <c r="T4" s="73" t="s">
-        <v>157</v>
-      </c>
-      <c r="U4" s="73">
+      <c r="AJ9" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="AK9" s="71">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="AM9" s="71">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="AO9" s="71">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="AQ9" s="71">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="AS9" s="71">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="AU9" s="71">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="AW9" s="71">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="AY9" s="71">
+        <v>0</v>
+      </c>
+      <c r="AZ9" s="71" t="s">
+        <v>187</v>
+      </c>
+      <c r="BA9" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="BB9" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="BC9" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="BD9" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="BE9" s="71" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="10" spans="1:57" s="71" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="71" t="s">
+        <v>188</v>
+      </c>
+      <c r="B10" s="71" t="s">
+        <v>170</v>
+      </c>
+      <c r="C10" s="71" t="s">
+        <v>189</v>
+      </c>
+      <c r="D10" s="71" t="s">
+        <v>190</v>
+      </c>
+      <c r="E10" s="71">
+        <v>0</v>
+      </c>
+      <c r="F10" s="71">
         <v>2</v>
       </c>
-      <c r="V4" s="73" t="s">
-        <v>155</v>
-      </c>
-      <c r="W4" s="73">
-        <v>0</v>
-      </c>
-      <c r="X4" s="73" t="s">
-        <v>158</v>
-      </c>
-      <c r="Y4" s="73" t="s">
-        <v>155</v>
-      </c>
-      <c r="Z4" s="73">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="73" t="s">
-        <v>155</v>
-      </c>
-      <c r="AB4" s="73" t="s">
-        <v>155</v>
-      </c>
-      <c r="AC4" s="73">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="73" t="s">
-        <v>155</v>
-      </c>
-      <c r="AE4" s="73">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="73">
-        <v>10</v>
-      </c>
-      <c r="AG4" s="73">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="73">
-        <v>0</v>
-      </c>
-      <c r="AI4" s="73">
+      <c r="G10" s="71">
+        <v>0</v>
+      </c>
+      <c r="H10" s="71">
+        <v>0</v>
+      </c>
+      <c r="I10" s="71">
+        <v>0</v>
+      </c>
+      <c r="J10" s="71" t="s">
+        <v>182</v>
+      </c>
+      <c r="K10" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="L10" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="M10" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="N10" s="71">
+        <v>0</v>
+      </c>
+      <c r="O10" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="P10" s="71">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="R10" s="71">
+        <v>0</v>
+      </c>
+      <c r="S10" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="T10" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="U10" s="71">
+        <v>0</v>
+      </c>
+      <c r="V10" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="W10" s="71">
+        <v>0</v>
+      </c>
+      <c r="X10" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y10" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z10" s="71">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="71" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB10" s="71" t="s">
+        <v>192</v>
+      </c>
+      <c r="AC10" s="71">
         <v>1</v>
       </c>
-      <c r="AJ4" s="73" t="s">
-        <v>155</v>
-      </c>
-      <c r="AK4" s="73">
-        <v>0</v>
-      </c>
-      <c r="AL4" s="73" t="s">
-        <v>155</v>
-      </c>
-      <c r="AM4" s="73">
-        <v>0</v>
-      </c>
-      <c r="AN4" s="73" t="s">
-        <v>155</v>
-      </c>
-      <c r="AO4" s="73">
-        <v>0</v>
-      </c>
-      <c r="AP4" s="73" t="s">
-        <v>155</v>
-      </c>
-      <c r="AQ4" s="73">
-        <v>0</v>
-      </c>
-      <c r="AR4" s="73" t="s">
-        <v>155</v>
-      </c>
-      <c r="AS4" s="73">
-        <v>0</v>
-      </c>
-      <c r="AT4" s="73" t="s">
-        <v>155</v>
-      </c>
-      <c r="AU4" s="73">
-        <v>0</v>
-      </c>
-      <c r="AV4" s="73" t="s">
-        <v>155</v>
-      </c>
-      <c r="AW4" s="73">
-        <v>0</v>
-      </c>
-      <c r="AX4" s="73" t="s">
-        <v>155</v>
-      </c>
-      <c r="AY4" s="73">
-        <v>0</v>
-      </c>
-      <c r="AZ4" s="73" t="s">
-        <v>159</v>
-      </c>
-      <c r="BA4" s="73" t="s">
-        <v>155</v>
-      </c>
-      <c r="BB4" s="73" t="s">
-        <v>155</v>
-      </c>
-      <c r="BC4" s="73" t="s">
-        <v>160</v>
-      </c>
-      <c r="BD4" s="73" t="s">
-        <v>155</v>
-      </c>
-      <c r="BE4" s="73" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="5" spans="1:57" s="73" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="73" t="s">
-        <v>161</v>
-      </c>
-      <c r="B5" s="73" t="s">
-        <v>162</v>
-      </c>
-      <c r="C5" s="73" t="s">
-        <v>153</v>
-      </c>
-      <c r="D5" s="73" t="s">
-        <v>163</v>
-      </c>
-      <c r="E5" s="73">
-        <v>0</v>
-      </c>
-      <c r="F5" s="73">
+      <c r="AD10" s="71" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE10" s="71">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="71">
+        <v>150</v>
+      </c>
+      <c r="AG10" s="71">
+        <v>500</v>
+      </c>
+      <c r="AH10" s="71">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="71">
         <v>2</v>
       </c>
-      <c r="G5" s="73">
-        <v>0</v>
-      </c>
-      <c r="H5" s="73">
-        <v>0</v>
-      </c>
-      <c r="I5" s="73">
-        <v>0</v>
-      </c>
-      <c r="J5" s="73" t="s">
-        <v>154</v>
-      </c>
-      <c r="K5" s="73" t="s">
-        <v>155</v>
-      </c>
-      <c r="L5" s="73" t="s">
-        <v>155</v>
-      </c>
-      <c r="M5" s="73" t="s">
-        <v>155</v>
-      </c>
-      <c r="N5" s="73">
-        <v>0</v>
-      </c>
-      <c r="O5" s="73" t="s">
-        <v>155</v>
-      </c>
-      <c r="P5" s="73">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="73" t="s">
-        <v>155</v>
-      </c>
-      <c r="R5" s="73">
-        <v>0</v>
-      </c>
-      <c r="S5" s="73" t="s">
-        <v>155</v>
-      </c>
-      <c r="T5" s="73" t="s">
-        <v>155</v>
-      </c>
-      <c r="U5" s="73">
-        <v>0</v>
-      </c>
-      <c r="V5" s="73" t="s">
-        <v>155</v>
-      </c>
-      <c r="W5" s="73">
-        <v>0</v>
-      </c>
-      <c r="X5" s="73" t="s">
-        <v>158</v>
-      </c>
-      <c r="Y5" s="73" t="s">
-        <v>155</v>
-      </c>
-      <c r="Z5" s="73">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="73" t="s">
-        <v>155</v>
-      </c>
-      <c r="AB5" s="73" t="s">
-        <v>155</v>
-      </c>
-      <c r="AC5" s="73">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="73" t="s">
-        <v>155</v>
-      </c>
-      <c r="AE5" s="73">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="73">
-        <v>10</v>
-      </c>
-      <c r="AG5" s="73">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="73">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="73">
+      <c r="AJ10" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="AK10" s="71">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="AM10" s="71">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="AO10" s="71">
+        <v>0</v>
+      </c>
+      <c r="AP10" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="AQ10" s="71">
+        <v>0</v>
+      </c>
+      <c r="AR10" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="AS10" s="71">
+        <v>0</v>
+      </c>
+      <c r="AT10" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="AU10" s="71">
+        <v>0</v>
+      </c>
+      <c r="AV10" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="AW10" s="71">
+        <v>0</v>
+      </c>
+      <c r="AX10" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="AY10" s="71">
+        <v>0</v>
+      </c>
+      <c r="AZ10" s="71" t="s">
+        <v>193</v>
+      </c>
+      <c r="BA10" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="BB10" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="BC10" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="BD10" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="BE10" s="71" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="11" spans="1:57" s="71" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="71" t="s">
+        <v>194</v>
+      </c>
+      <c r="B11" s="71" t="s">
+        <v>170</v>
+      </c>
+      <c r="C11" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="D11" s="71" t="s">
+        <v>195</v>
+      </c>
+      <c r="E11" s="71">
+        <v>0</v>
+      </c>
+      <c r="F11" s="71">
+        <v>2</v>
+      </c>
+      <c r="G11" s="71">
+        <v>0</v>
+      </c>
+      <c r="H11" s="71">
+        <v>0</v>
+      </c>
+      <c r="I11" s="71">
+        <v>0</v>
+      </c>
+      <c r="J11" s="71" t="s">
+        <v>190</v>
+      </c>
+      <c r="K11" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="L11" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="M11" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="N11" s="71">
+        <v>0</v>
+      </c>
+      <c r="O11" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="P11" s="71">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="R11" s="71">
+        <v>0</v>
+      </c>
+      <c r="S11" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="T11" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="U11" s="71">
+        <v>0</v>
+      </c>
+      <c r="V11" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="W11" s="71">
+        <v>0</v>
+      </c>
+      <c r="X11" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y11" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z11" s="71">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="AB11" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="AC11" s="71">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="71" t="s">
+        <v>179</v>
+      </c>
+      <c r="AE11" s="71">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="71">
+        <v>100</v>
+      </c>
+      <c r="AG11" s="71">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="71">
         <v>1</v>
       </c>
-      <c r="AJ5" s="73" t="s">
-        <v>155</v>
-      </c>
-      <c r="AK5" s="73">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="73" t="s">
-        <v>155</v>
-      </c>
-      <c r="AM5" s="73">
-        <v>0</v>
-      </c>
-      <c r="AN5" s="73" t="s">
-        <v>155</v>
-      </c>
-      <c r="AO5" s="73">
-        <v>0</v>
-      </c>
-      <c r="AP5" s="73" t="s">
-        <v>155</v>
-      </c>
-      <c r="AQ5" s="73">
-        <v>0</v>
-      </c>
-      <c r="AR5" s="73" t="s">
-        <v>155</v>
-      </c>
-      <c r="AS5" s="73">
-        <v>0</v>
-      </c>
-      <c r="AT5" s="73" t="s">
-        <v>155</v>
-      </c>
-      <c r="AU5" s="73">
-        <v>0</v>
-      </c>
-      <c r="AV5" s="73" t="s">
-        <v>155</v>
-      </c>
-      <c r="AW5" s="73">
-        <v>0</v>
-      </c>
-      <c r="AX5" s="73" t="s">
-        <v>155</v>
-      </c>
-      <c r="AY5" s="73">
-        <v>0</v>
-      </c>
-      <c r="AZ5" s="73" t="s">
-        <v>164</v>
-      </c>
-      <c r="BA5" s="73" t="s">
-        <v>155</v>
-      </c>
-      <c r="BB5" s="73" t="s">
-        <v>155</v>
-      </c>
-      <c r="BC5" s="73" t="s">
-        <v>165</v>
-      </c>
-      <c r="BD5" s="73" t="s">
-        <v>155</v>
-      </c>
-      <c r="BE5" s="73" t="s">
-        <v>155</v>
+      <c r="AI11" s="71">
+        <v>1</v>
+      </c>
+      <c r="AJ11" s="71" t="s">
+        <v>196</v>
+      </c>
+      <c r="AK11" s="71">
+        <v>1</v>
+      </c>
+      <c r="AL11" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="AM11" s="71">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="AO11" s="71">
+        <v>0</v>
+      </c>
+      <c r="AP11" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="AQ11" s="71">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="AS11" s="71">
+        <v>0</v>
+      </c>
+      <c r="AT11" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="AU11" s="71">
+        <v>0</v>
+      </c>
+      <c r="AV11" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="AW11" s="71">
+        <v>0</v>
+      </c>
+      <c r="AX11" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="AY11" s="71">
+        <v>0</v>
+      </c>
+      <c r="AZ11" s="71" t="s">
+        <v>197</v>
+      </c>
+      <c r="BA11" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="BB11" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="BC11" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="BD11" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="BE11" s="71" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>
